--- a/results/文献リスト.xlsx
+++ b/results/文献リスト.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuki/Dropbox/論文原稿/ゴマサバ産卵量/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuki/FRA/eDNA_INLA/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891A8A95-1360-B348-95C9-1A59BFAB2619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF95C45-21C4-3B44-8B6F-141C94ECA061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2080" windowWidth="19440" windowHeight="17560" xr2:uid="{E374A4D6-40D7-994B-B12B-ED7B74390F71}"/>
+    <workbookView xWindow="2220" yWindow="440" windowWidth="19440" windowHeight="17560" xr2:uid="{E374A4D6-40D7-994B-B12B-ED7B74390F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -50,151 +50,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Takasuka A, Kubota Hm Oozeki Y (2008a) Spawning overlap of anchovy and sardine in the western North Pacific. Mar Ecol Prog Ser 366:231-244</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Takasuka A, Oozeki Y, Kubota H (2008b) Multi-species regime shifts reflected in spawning temerature optima of small pelagic fish in the western North Pacific. Mar Ecol Prog Ser 360:211-217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Watanabe C, Yatsu A (2006) Long-tem changes in maturity at age of chub mackerel (\textit{Scomber japonicus}) in relation to population declines in the waters off northeastern Japan. Fish Res 78:323-332</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Watanabe T (1970) Morphology and ecology of early stages of life in Japanese common mackerel, \textit{Scomber japonicus} HOUTTUYN, with special reference to fluctuation of population. Bull Tokai Reg Fish Res Lab 62:1-283 (in Japanese with English abstract)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Watanabe C, Hanai T, Meguro K, Ogino R, Kubota Y, Kimura R (1999) Spawning biomass estimates of chub mackerel \textit{Scomber japonicus} of Pacific subpopulation off central Japan by a daily egg production method. Nippon Suisan Gakkaishi 65: 695-702 (in Japanese with English abstract)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Watanabe C, Nishida H (2002) Development of assessment techniques for pelagic fish stocks: applications of daily egg production method and pelagic trawl in the northwestern Pacific ocean. Fish Sci 68:97-100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Kanamori Y, Takasuka A, Nishijima S, Okamura H (2019) Climate change shifts the spawning ground northward and extends the spawning period of chub mackerel in the western North Pacific. Mar Ecol Prog Ser 624:155-166</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hashimoto M, Okamura H, Ichinokawa M, Hiramatsu K, Yamakawa T (2018) Impacts of the nonlinear relationship between abundance and its index in a tuned virtual population analysis. Fish Sci 84:335-347</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mohn R (1999) The retrospective problem in sequential population analysis: an investigation using cod fishery and simulated data. ICES J Mar Sci 56:473-488</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ichinokawa M, Okamura H (2014) Review of stock evaluation methods using VPA for fishery stocks in Japan: implementation with R. Bull Jpn Soc Fish Oceanogr 78:104-113 (in Japanese with English abstract)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Elphick CS (2008) How you count counts: the importance of methods research in applied ecology. J Appl Ecol 45:1313-1320</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matarese AC, Spies IB, Busby MS, Orr JW (2011) Early larvae of \textit{Zesticelus profundorum} (family Cottidae) identified using DNA barcording. Ichthyol Res 58: 170-174</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Victor BC, Hanner R, Shivji M, Hyde J, Caldow C (2009) Identification of the larval and juvenile stages of the cubera snapper, \textit{Lutignus cyanopterus}, using DNA barcoding. Zootaxa 2215:24-36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishida H (2001) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Takasuka A, Yoneda M, Oozeki Y (2019) Density depend- ence in total egg production per spawner for marine fish. Fish Fish 20:125−137</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Takasuka A, Tadokoro K, Okazaki Y, Ichikawa T, Sugisaki H, Kuroda H, Oozeki Y (2017) In situ filtering rate vari- ability in egg and larval surveys off the Pacific coast of Japan: Do plankton nets clog or over-filter in the sea? Deep-Sea Res I 120:132−137</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thorson JT, Barnett LAK (2017) Comparing estimates of abundance trends and distribution shifts using single- and multispecies models of fishes and biogenic habitat. ICES J Mar Sci 74:1311−1321</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thorson JT (2019)  Guidance for decisions using the Vector Autoregressive Spatio-Temporal (VAST) package in stock, ecosystem, habitat and climate assessments. Fish Res 210:143-161</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thorson JT, Shelton AO, Ward EJ, Skaug HJ (2015) Geostatistical delta-generalized linear mixed models improve precision for estimated abundance indices for West Coast groundfishes. ICES J Mar Sci 72:1297−1310</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lindgren F (2012) Continuous domain spatial models in R-INLA. ISBA Bull 19:14-20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R Development Core Team (2019) R: a language and envi- ronment for statistical computing. R Foundation for Sta- tistical Computing, Vienna</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thorson JT, Kristensen K (2016) Implementing a generic method for bias correction in statistical models using ran- dom effects, with spatial and population dynamics exam- ples. Fish Res 175: 66–74</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thorson JT, Ianelli JN, Kotwicki S (2017) The relative influ- ence of temperature and size-structure on fish distribu- tion shifts: a case-study on walleye pollock in the Bering Sea. Fish Fish 18:1073−1084</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Goelz SE, Hamilton SR, Vogelstein B (1985) Purification of DNA from formaldehyde fixed and paraffin embedded human tissue. Biochem Biophys Res Commun 130:118–126</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Impraim CC, Saiki RK, Erlich HA, Teplitz RL (1987) Analysis of DNA extracted from formalin-fixed, paraffin-embedded tissues by enzymatic amplification and hybridization with sequence-specific oligonucleotides. Biochem Biophys Res Commun 142:710–716</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hashimoto M, Nishijima S, Yukami R, Watanabe C, Kamimura Y, Furuichi S, Ichinokawa M, Okamura H (2019) Spatiotemporal dynamics of the Pacific chub mackerel revealed by standardized abundance indices. Fish Res 219:105315</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Crossin GT, Cooke SJ, Goldbogen JA, Phillips RA (2014) Tracking fitness in marine vertebrates: current knowledge and opportunities for future research. Mar Ecol Prog Ser 496:1-17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Marko PB, Lee SC, Rice AM, Gramling JM, Fitzhenry TM, McAlister JS, Harper GR, Moran AL (2004) Mislabelling of a depleted reef fish. Nature 430:309-310</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Garcia-Vazquez E, Machado-Schiaffino G, Campo D, Juanes F (2012) Species misidentification in mixed hake fisheries may lead to overexploitation and population bottlenecks. Fish Res 114:52-55</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mori &amp; Hiyama (2014)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Watanabe et al (2000)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hashimoto et al (2005)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Takahashi et al (2010)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ko HL, Wang YT, Chiu TS, Lee MA, Leu MY, Chang KZ et al. (2013) Evaluating the accuracy of morphological identification of larval fishes by applying DNA barcoding. PLoS ONE 8:e53451</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MacKenzie DI, Nichols JD, Lanchman GB, Droege S, Royle JA, Langtimm CA (2002) Estimating site occupancy rates when detection probabilities are less than one. Ecology 83:2248-2255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Williams BK, Nichols JD, Conroy MJ (2002) Analysis and management of animal population. Academic Press, New York</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yukami R, Isu S, Watanabe C, Kamimura Y, FUruichi S (2019) Stock assessment and evaluation for the Pacific stock of spotted mackerel (fiscal year 2018). In: Marine fisheries stock assessment and evaluation for Japanese waters (2018/ 2019). Fisheries Agency and Fisheries Research Agency of Japan, Yokohama, Kanagawa, p 248−278 (in Japanese)</t>
+    <t>Isaac NJB, Jarzyna MA, Keil P, Dambly LI, Boersch-Supan PH, Browning E, Freeman SN, Golding N, Guillera-Arroita G, Henrys PA, Jarvis S, Lahoz-Monfort J, Pagel J, Pescott OL, Schmucki R, Simmonds EG, O'Hara RB (2020) Data integration for large-scale models of species distributions. Trends in Ecology and Evolution, 35:56–67. https://doi.org/10.1016/j.tree.2019.08.006</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,18 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,14 +97,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DFD41-7034-654F-9CDC-5122105ACFBB}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -592,344 +436,311 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B46" xr:uid="{3C92AF17-2AA0-3844-8E1F-1C71E1474808}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B46">
-      <sortCondition ref="B1:B46"/>
+  <autoFilter ref="A1:B1" xr:uid="{3C92AF17-2AA0-3844-8E1F-1C71E1474808}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+      <sortCondition ref="B1:B61"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
